--- a/01.doc/campos_issues.xlsx
+++ b/01.doc/campos_issues.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="18195" windowHeight="7680" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="18195" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="campos" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="332">
   <si>
     <t>ALF</t>
   </si>
@@ -1033,6 +1033,9 @@
   </si>
   <si>
     <t>Integração com ferramentas dos developers</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1427,10 +1430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1955,6 +1958,11 @@
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>280</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -4283,7 +4291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>

--- a/01.doc/campos_issues.xlsx
+++ b/01.doc/campos_issues.xlsx
@@ -1035,7 +1035,7 @@
     <t>Integração com ferramentas dos developers</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">    </t>
   </si>
 </sst>
 </file>
